--- a/PayrollProject/templates/CourtOrderCAEO1971CivilDebtInputSheet.xlsx
+++ b/PayrollProject/templates/CourtOrderCAEO1971CivilDebtInputSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\Provar\NewPeopleXCDPayroll\PayrollProject\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF4E19C-D99C-492B-B0FE-5D9E10E5AA4C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985329D3-3D18-4218-B95C-432D3C043E58}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>EmpName</t>
   </si>
@@ -63,19 +63,22 @@
     <t>12000</t>
   </si>
   <si>
-    <t>October-2018</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTMN COAEO1971CivilDebt RE</t>
-  </si>
-  <si>
-    <t>November-2018</t>
-  </si>
-  <si>
     <t>DO NOT TOUCH AUTOMATION EMP 109</t>
   </si>
   <si>
     <t>CAEO1971civildebt_Payroll</t>
+  </si>
+  <si>
+    <t>October-2019</t>
+  </si>
+  <si>
+    <t>DO NOT CAEO1971CDOCT</t>
+  </si>
+  <si>
+    <t>DO NOT CAEO1971CDNOV</t>
+  </si>
+  <si>
+    <t>November-2019</t>
   </si>
 </sst>
 </file>
@@ -464,7 +467,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +506,7 @@
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
@@ -515,13 +518,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -535,7 +538,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +577,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
@@ -586,13 +589,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/PayrollProject/templates/CourtOrderCAEO1971CivilDebtInputSheet.xlsx
+++ b/PayrollProject/templates/CourtOrderCAEO1971CivilDebtInputSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985329D3-3D18-4218-B95C-432D3C043E58}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D633CEB-07DC-452A-968F-FFCF114FD74A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
+    <workbookView xWindow="0" yWindow="630" windowWidth="20490" windowHeight="7485" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
   </bookViews>
   <sheets>
     <sheet name="October2018PayPeriod" sheetId="1" r:id="rId1"/>
@@ -467,7 +467,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
